--- a/模板10.6.xlsx
+++ b/模板10.6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sssimonyang\projects\stock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019C961D-56EC-49D2-81E1-8ECD3DB5DB56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C650430-22FD-4521-9653-58C0B9546CA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="232" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="11">
   <si>
     <t>1.全天无买单是从9点32分至14点30分</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -65,15 +65,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>情况5：9点40分前无101以上买单或者卖单，10点前无101以上卖单，且全天无901以上买单或者卖单，现手300以上，成交金额大于2000万</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>情况6：9点40分前有白单（大于等于10），其后有白单（大于等于10），其后有白单（大于等于10），且全天无901以上买单或者卖单，现手300以上</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>情况7：9点40分前有白单（大于100，小于1000），且全天无901以上买单或者卖单</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>情况5：9点40分前无101以上买单或者卖单，10点前无101以上卖单，且全天无901以上买单或者卖单，现手300以上，成交金额大于1600万</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +458,7 @@
   <dimension ref="A1:O421"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -493,19 +493,19 @@
         <v>3</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>3</v>
